--- a/data/trans_orig/P24F-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E570FF80-5139-47B6-A3F7-6409B96351E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{533EDC08-D03D-4F40-BE35-6ABDB5577431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E5D3CB9-B90E-4C17-851D-C55908848E56}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DD04563-66E6-47C6-BACF-81F3442AE7DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="619">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>12,25%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,05%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>No lo ha pensado</t>
@@ -100,10 +100,10 @@
     <t>44,94%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
   </si>
   <si>
     <t>24,09%</t>
@@ -118,10 +118,10 @@
     <t>38,53%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
   </si>
   <si>
     <t>Sí le gustaría</t>
@@ -130,13 +130,10 @@
     <t>43,55%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
   </si>
   <si>
     <t>40,03%</t>
@@ -148,10 +145,10 @@
     <t>48,78%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -163,7 +160,7 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>20,81%</t>
+    <t>20,73%</t>
   </si>
   <si>
     <t>15,36%</t>
@@ -178,10 +175,7 @@
     <t>11,13%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -193,1639 +187,1654 @@
     <t>4,18%</t>
   </si>
   <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
     <t>33,24%</t>
   </si>
   <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
   </si>
   <si>
     <t>17,95%</t>
@@ -2297,7 +2306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97BBF96-7533-4A5B-A33D-586B637DC73C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31A66C-FBA7-4BA1-9ED4-B661948CA4AB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2538,13 +2547,13 @@
         <v>12531</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -2553,19 +2562,19 @@
         <v>32815</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -2574,13 +2583,13 @@
         <v>4305</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2589,13 +2598,13 @@
         <v>3179</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2604,13 +2613,13 @@
         <v>7484</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2634,13 @@
         <v>46571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -2640,13 +2649,13 @@
         <v>20698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>66</v>
@@ -2655,18 +2664,18 @@
         <v>67269</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2678,13 +2687,13 @@
         <v>11411</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2693,13 +2702,13 @@
         <v>11910</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -2708,13 +2717,13 @@
         <v>23320</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2738,13 @@
         <v>112541</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -2744,13 +2753,13 @@
         <v>71655</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -2759,13 +2768,13 @@
         <v>184197</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2789,13 @@
         <v>109323</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -2795,13 +2804,13 @@
         <v>39998</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2810,19 +2819,19 @@
         <v>149321</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>38</v>
@@ -2831,13 +2840,13 @@
         <v>39435</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2846,13 +2855,13 @@
         <v>17538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -2861,13 +2870,13 @@
         <v>56973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2891,13 @@
         <v>272710</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -2897,13 +2906,13 @@
         <v>141101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -2912,18 +2921,18 @@
         <v>413811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2935,13 +2944,13 @@
         <v>18609</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2950,13 +2959,13 @@
         <v>9260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -2965,13 +2974,13 @@
         <v>27870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2995,13 @@
         <v>143840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -3001,13 +3010,13 @@
         <v>73097</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>206</v>
@@ -3016,13 +3025,13 @@
         <v>216937</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3046,13 @@
         <v>151137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3052,13 +3061,13 @@
         <v>106132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -3067,19 +3076,19 @@
         <v>257269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
         <v>84</v>
@@ -3088,13 +3097,13 @@
         <v>92694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3103,13 +3112,13 @@
         <v>38647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -3118,13 +3127,13 @@
         <v>131341</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3148,13 @@
         <v>406280</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>215</v>
@@ -3154,13 +3163,13 @@
         <v>227136</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>593</v>
@@ -3169,18 +3178,18 @@
         <v>633416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3192,13 +3201,13 @@
         <v>2835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3207,13 +3216,13 @@
         <v>2000</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3222,13 +3231,13 @@
         <v>4835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3252,13 @@
         <v>77515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -3258,13 +3267,13 @@
         <v>48959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -3273,13 +3282,13 @@
         <v>126474</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3303,13 @@
         <v>118793</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -3309,13 +3318,13 @@
         <v>82551</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>196</v>
@@ -3324,19 +3333,19 @@
         <v>201343</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
         <v>50</v>
@@ -3345,13 +3354,13 @@
         <v>53832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3360,13 +3369,13 @@
         <v>36492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3375,13 +3384,13 @@
         <v>90323</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3405,13 @@
         <v>252975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>176</v>
@@ -3411,13 +3420,13 @@
         <v>170001</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>413</v>
@@ -3426,18 +3435,18 @@
         <v>422976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3449,13 +3458,13 @@
         <v>22148</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -3464,13 +3473,13 @@
         <v>24024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -3479,13 +3488,13 @@
         <v>46172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3509,13 @@
         <v>161753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -3515,13 +3524,13 @@
         <v>104257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>268</v>
@@ -3530,13 +3539,13 @@
         <v>266010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3560,13 @@
         <v>140342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>113</v>
@@ -3566,13 +3575,13 @@
         <v>118020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>260</v>
@@ -3581,19 +3590,19 @@
         <v>258363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7">
         <v>83</v>
@@ -3602,13 +3611,13 @@
         <v>80651</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>57</v>
@@ -3617,13 +3626,13 @@
         <v>58093</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>140</v>
@@ -3632,13 +3641,13 @@
         <v>138745</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3662,13 @@
         <v>404894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>292</v>
@@ -3668,13 +3677,13 @@
         <v>304394</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>714</v>
@@ -3683,13 +3692,13 @@
         <v>709289</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3715,13 @@
         <v>56056</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -3721,13 +3730,13 @@
         <v>47194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -3736,13 +3745,13 @@
         <v>103250</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3766,13 @@
         <v>516578</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>295</v>
@@ -3772,13 +3781,13 @@
         <v>302954</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>805</v>
@@ -3787,13 +3796,13 @@
         <v>819533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3817,13 @@
         <v>539879</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>353</v>
@@ -3823,13 +3832,13 @@
         <v>359231</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>877</v>
@@ -3838,10 +3847,10 @@
         <v>899111</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>217</v>
@@ -3850,7 +3859,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
         <v>259</v>
@@ -3910,13 +3919,13 @@
         <v>1383431</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>845</v>
@@ -3925,13 +3934,13 @@
         <v>863330</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
         <v>2192</v>
@@ -3940,13 +3949,13 @@
         <v>2246761</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8928F713-C5F9-4950-B7A4-591347F844F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7D5548-6D75-4171-9ECC-E07C9FF7DEC1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4117,7 +4126,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4132,7 +4141,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4156,13 @@
         <v>8828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4162,7 +4171,7 @@
         <v>4087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>235</v>
@@ -4240,7 +4249,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -4300,13 +4309,13 @@
         <v>51660</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4315,13 +4324,13 @@
         <v>20018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>69</v>
@@ -4330,18 +4339,18 @@
         <v>71678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4374,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -4389,7 +4398,7 @@
         <v>261</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4413,13 @@
         <v>29931</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4419,13 +4428,13 @@
         <v>26009</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -4434,13 +4443,13 @@
         <v>55940</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4464,13 @@
         <v>149791</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>86</v>
@@ -4470,13 +4479,13 @@
         <v>92749</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -4485,19 +4494,19 @@
         <v>242541</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>36</v>
@@ -4506,13 +4515,13 @@
         <v>36021</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -4521,13 +4530,13 @@
         <v>20886</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -4536,13 +4545,13 @@
         <v>56907</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4566,13 @@
         <v>217922</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -4572,13 +4581,13 @@
         <v>140775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>338</v>
@@ -4587,18 +4596,18 @@
         <v>358698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4610,13 +4619,13 @@
         <v>4172</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4625,13 +4634,13 @@
         <v>3157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4640,13 +4649,13 @@
         <v>7329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4670,13 @@
         <v>57128</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -4676,13 +4685,13 @@
         <v>30600</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="M15" s="7">
         <v>81</v>
@@ -4691,13 +4700,13 @@
         <v>87727</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4721,13 @@
         <v>265141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>182</v>
@@ -4727,13 +4736,13 @@
         <v>199001</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>424</v>
@@ -4742,19 +4751,19 @@
         <v>464142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
         <v>71</v>
@@ -4763,13 +4772,13 @@
         <v>76764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -4778,13 +4787,13 @@
         <v>57589</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -4793,13 +4802,13 @@
         <v>134353</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4823,13 @@
         <v>403205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>265</v>
@@ -4829,13 +4838,13 @@
         <v>290347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>635</v>
@@ -4844,18 +4853,18 @@
         <v>693552</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4867,13 +4876,13 @@
         <v>1970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4882,13 +4891,13 @@
         <v>4226</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4897,13 +4906,13 @@
         <v>6196</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4927,13 @@
         <v>47513</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -4933,13 +4942,13 @@
         <v>33918</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -4948,13 +4957,13 @@
         <v>81431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4978,13 @@
         <v>188723</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -4984,13 +4993,13 @@
         <v>135607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M21" s="7">
         <v>290</v>
@@ -4999,19 +5008,19 @@
         <v>324330</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
         <v>70</v>
@@ -5020,13 +5029,13 @@
         <v>75547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5035,13 +5044,13 @@
         <v>54969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -5050,13 +5059,13 @@
         <v>130515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5080,13 @@
         <v>313753</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>205</v>
@@ -5086,13 +5095,13 @@
         <v>228719</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>489</v>
@@ -5101,18 +5110,18 @@
         <v>542472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5124,13 +5133,13 @@
         <v>13558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>198</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>51</v>
+        <v>355</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5139,13 +5148,13 @@
         <v>5355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5154,13 +5163,13 @@
         <v>18912</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5184,13 @@
         <v>68665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>367</v>
+        <v>187</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5190,13 +5199,13 @@
         <v>49421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -5205,13 +5214,13 @@
         <v>118085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5235,13 @@
         <v>190223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>372</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -5241,13 +5250,13 @@
         <v>170452</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M26" s="7">
         <v>347</v>
@@ -5256,19 +5265,19 @@
         <v>360675</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7">
         <v>87</v>
@@ -5277,13 +5286,13 @@
         <v>89798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="H27" s="7">
         <v>64</v>
@@ -5292,13 +5301,13 @@
         <v>67086</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M27" s="7">
         <v>151</v>
@@ -5307,13 +5316,13 @@
         <v>156884</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5337,13 @@
         <v>362243</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>277</v>
@@ -5343,13 +5352,13 @@
         <v>292313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>629</v>
@@ -5358,13 +5367,13 @@
         <v>654557</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5390,13 @@
         <v>21878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -5396,13 +5405,13 @@
         <v>13869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -5411,13 +5420,13 @@
         <v>35747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5441,13 @@
         <v>212065</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H30" s="7">
         <v>132</v>
@@ -5447,13 +5456,13 @@
         <v>144034</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M30" s="7">
         <v>332</v>
@@ -5462,13 +5471,13 @@
         <v>356099</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5492,13 @@
         <v>830533</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H31" s="7">
         <v>564</v>
@@ -5498,13 +5507,13 @@
         <v>612768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M31" s="7">
         <v>1337</v>
@@ -5513,19 +5522,19 @@
         <v>1443300</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
         <v>271</v>
@@ -5534,13 +5543,13 @@
         <v>284308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="H32" s="7">
         <v>185</v>
@@ -5549,13 +5558,13 @@
         <v>201502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>417</v>
+        <v>40</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M32" s="7">
         <v>456</v>
@@ -5564,13 +5573,13 @@
         <v>485809</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5594,13 @@
         <v>1348784</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>894</v>
@@ -5600,13 +5609,13 @@
         <v>972173</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
         <v>2160</v>
@@ -5615,13 +5624,13 @@
         <v>2320956</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2B5309-4B93-4C44-9379-76A6D1A8A5AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C408699-A7BC-4FAD-B0EA-937B8F58D689}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5664,7 +5673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5771,13 +5780,13 @@
         <v>2127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5792,7 +5801,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5801,13 +5810,13 @@
         <v>2127</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5831,13 @@
         <v>6587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5837,13 +5846,13 @@
         <v>4666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5852,13 +5861,13 @@
         <v>11252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5882,13 @@
         <v>32631</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -5888,13 +5897,13 @@
         <v>22273</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -5903,19 +5912,19 @@
         <v>54904</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -5924,13 +5933,13 @@
         <v>7714</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>448</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5939,13 +5948,13 @@
         <v>4891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>444</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5954,13 +5963,13 @@
         <v>12605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5984,13 @@
         <v>49058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -5990,13 +5999,13 @@
         <v>31830</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6005,18 +6014,18 @@
         <v>80888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -6028,13 +6037,13 @@
         <v>5847</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6043,13 +6052,13 @@
         <v>3274</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -6058,13 +6067,13 @@
         <v>9120</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6088,13 @@
         <v>34728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>461</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -6094,13 +6103,13 @@
         <v>32148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -6109,13 +6118,13 @@
         <v>66877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6139,13 @@
         <v>115538</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -6145,13 +6154,13 @@
         <v>69267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -6160,19 +6169,19 @@
         <v>184805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>43</v>
@@ -6181,13 +6190,13 @@
         <v>44538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -6196,13 +6205,13 @@
         <v>29676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>73</v>
@@ -6211,13 +6220,13 @@
         <v>74214</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6241,13 @@
         <v>200651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
@@ -6247,13 +6256,13 @@
         <v>134365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -6262,18 +6271,18 @@
         <v>335016</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6285,13 +6294,13 @@
         <v>14059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -6300,13 +6309,13 @@
         <v>10732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -6315,13 +6324,13 @@
         <v>24791</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6345,13 @@
         <v>54136</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -6351,13 +6360,13 @@
         <v>44331</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M15" s="7">
         <v>91</v>
@@ -6366,13 +6375,13 @@
         <v>98468</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6396,13 @@
         <v>199223</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>165</v>
@@ -6402,13 +6411,13 @@
         <v>170419</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M16" s="7">
         <v>344</v>
@@ -6417,19 +6426,19 @@
         <v>369642</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
         <v>56</v>
@@ -6438,13 +6447,13 @@
         <v>61285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>515</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -6453,13 +6462,13 @@
         <v>43379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -6468,13 +6477,13 @@
         <v>104664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>520</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6498,13 @@
         <v>328703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>259</v>
@@ -6504,13 +6513,13 @@
         <v>268862</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -6519,18 +6528,18 @@
         <v>597565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6542,13 +6551,13 @@
         <v>8928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6557,13 +6566,13 @@
         <v>1969</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6572,13 +6581,13 @@
         <v>10897</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>51</v>
+        <v>524</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6602,13 @@
         <v>71993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -6608,13 +6617,13 @@
         <v>67308</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -6623,13 +6632,13 @@
         <v>139302</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6653,13 @@
         <v>138893</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -6659,13 +6668,13 @@
         <v>102089</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -6674,19 +6683,19 @@
         <v>240983</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
         <v>76</v>
@@ -6695,13 +6704,13 @@
         <v>83860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>545</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>546</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6710,13 +6719,13 @@
         <v>50972</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -6725,10 +6734,10 @@
         <v>134832</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>552</v>
@@ -6746,13 +6755,13 @@
         <v>303674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>215</v>
@@ -6761,13 +6770,13 @@
         <v>222339</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>486</v>
@@ -6776,18 +6785,18 @@
         <v>526013</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6832,10 +6841,10 @@
         <v>558</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>395</v>
+        <v>559</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6859,13 @@
         <v>61910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -6865,13 +6874,13 @@
         <v>34629</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>565</v>
+        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -6883,10 +6892,10 @@
         <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>567</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6910,13 @@
         <v>163344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -6916,13 +6925,13 @@
         <v>158045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M26" s="7">
         <v>315</v>
@@ -6931,19 +6940,19 @@
         <v>321388</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7">
         <v>54</v>
@@ -6952,13 +6961,13 @@
         <v>53690</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>373</v>
+        <v>579</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>580</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -6967,13 +6976,13 @@
         <v>56706</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M27" s="7">
         <v>106</v>
@@ -6982,10 +6991,10 @@
         <v>110396</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>253</v>
@@ -7003,13 +7012,13 @@
         <v>280900</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>245</v>
@@ -7018,13 +7027,13 @@
         <v>256304</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>522</v>
@@ -7033,13 +7042,13 @@
         <v>537204</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7065,13 @@
         <v>32917</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>582</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -7071,13 +7080,13 @@
         <v>22900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -7086,13 +7095,13 @@
         <v>55817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>589</v>
+        <v>355</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7116,13 @@
         <v>229354</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H30" s="7">
         <v>178</v>
@@ -7122,13 +7131,13 @@
         <v>183082</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M30" s="7">
         <v>387</v>
@@ -7137,13 +7146,13 @@
         <v>412436</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>336</v>
+        <v>598</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7167,13 @@
         <v>649628</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H31" s="7">
         <v>508</v>
@@ -7173,13 +7182,13 @@
         <v>522094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M31" s="7">
         <v>1112</v>
@@ -7188,19 +7197,19 @@
         <v>1171722</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
         <v>236</v>
@@ -7209,13 +7218,13 @@
         <v>251086</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H32" s="7">
         <v>176</v>
@@ -7224,13 +7233,13 @@
         <v>185625</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="M32" s="7">
         <v>412</v>
@@ -7239,13 +7248,13 @@
         <v>436711</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7269,13 @@
         <v>1162985</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>885</v>
@@ -7275,13 +7284,13 @@
         <v>913701</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
         <v>1966</v>
@@ -7290,13 +7299,13 @@
         <v>2076686</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24F-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{533EDC08-D03D-4F40-BE35-6ABDB5577431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBB49D5-F1D5-4998-B6FC-0EBF4B3065B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DD04563-66E6-47C6-BACF-81F3442AE7DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E135EE2-7D62-4286-A91B-0915A285743A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="613">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo sabe</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>11,14%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,02%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>No lo ha pensado</t>
@@ -100,55 +100,58 @@
     <t>44,94%</t>
   </si>
   <si>
-    <t>31,49%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>Sí le gustaría</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>60,54%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>Sí le gustaría</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
   <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -157,1744 +160,1723 @@
     <t>9,24%</t>
   </si>
   <si>
-    <t>2,32%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>22,43%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>22,77%</t>
+    <t>17,58%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>54,08%</t>
   </si>
   <si>
     <t>56,42%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>23,09%</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31A66C-FBA7-4BA1-9ED4-B661948CA4AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2631C1B-5DE4-4E1B-AAD4-E6D64C5E0620}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2547,13 +2529,13 @@
         <v>12531</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -2562,19 +2544,19 @@
         <v>32815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -2583,13 +2565,13 @@
         <v>4305</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2598,13 +2580,13 @@
         <v>3179</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2613,13 +2595,13 @@
         <v>7484</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2616,13 @@
         <v>46571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -2649,13 +2631,13 @@
         <v>20698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>66</v>
@@ -2664,18 +2646,18 @@
         <v>67269</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2687,13 +2669,13 @@
         <v>11411</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2702,13 +2684,13 @@
         <v>11910</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -2717,13 +2699,13 @@
         <v>23320</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2720,13 @@
         <v>112541</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -2753,13 +2735,13 @@
         <v>71655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -2768,13 +2750,13 @@
         <v>184197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2771,13 @@
         <v>109323</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -2804,13 +2786,13 @@
         <v>39998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2819,19 +2801,19 @@
         <v>149321</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>38</v>
@@ -2840,13 +2822,13 @@
         <v>39435</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2855,13 +2837,13 @@
         <v>17538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -2870,13 +2852,13 @@
         <v>56973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2873,13 @@
         <v>272710</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -2906,13 +2888,13 @@
         <v>141101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -2921,18 +2903,18 @@
         <v>413811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2944,13 +2926,13 @@
         <v>18609</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2959,13 +2941,13 @@
         <v>9260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -2974,13 +2956,13 @@
         <v>27870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2977,13 @@
         <v>143840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -3010,13 +2992,13 @@
         <v>73097</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>206</v>
@@ -3025,13 +3007,13 @@
         <v>216937</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3028,13 @@
         <v>151137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3061,13 +3043,13 @@
         <v>106132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -3076,19 +3058,19 @@
         <v>257269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>84</v>
@@ -3097,13 +3079,13 @@
         <v>92694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3112,13 +3094,13 @@
         <v>38647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -3127,13 +3109,13 @@
         <v>131341</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3130,13 @@
         <v>406280</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>215</v>
@@ -3163,13 +3145,13 @@
         <v>227136</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>593</v>
@@ -3178,18 +3160,18 @@
         <v>633416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3201,13 +3183,13 @@
         <v>2835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3216,13 +3198,13 @@
         <v>2000</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3231,13 +3213,13 @@
         <v>4835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3234,13 @@
         <v>77515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -3267,13 +3249,13 @@
         <v>48959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -3282,13 +3264,13 @@
         <v>126474</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3285,13 @@
         <v>118793</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -3318,13 +3300,13 @@
         <v>82551</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>196</v>
@@ -3333,19 +3315,19 @@
         <v>201343</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>50</v>
@@ -3354,13 +3336,13 @@
         <v>53832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3369,13 +3351,13 @@
         <v>36492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3384,13 +3366,13 @@
         <v>90323</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3387,13 @@
         <v>252975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>176</v>
@@ -3420,13 +3402,13 @@
         <v>170001</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>413</v>
@@ -3435,18 +3417,18 @@
         <v>422976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3458,13 +3440,13 @@
         <v>22148</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -3473,13 +3455,13 @@
         <v>24024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -3488,13 +3470,13 @@
         <v>46172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3491,13 @@
         <v>161753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -3524,10 +3506,10 @@
         <v>104257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>170</v>
@@ -3545,7 +3527,7 @@
         <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3542,13 @@
         <v>140342</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>113</v>
@@ -3575,13 +3557,13 @@
         <v>118020</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>260</v>
@@ -3590,19 +3572,19 @@
         <v>258363</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>83</v>
@@ -3611,13 +3593,13 @@
         <v>80651</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>57</v>
@@ -3626,13 +3608,13 @@
         <v>58093</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>140</v>
@@ -3641,13 +3623,13 @@
         <v>138745</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3644,13 @@
         <v>404894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>292</v>
@@ -3677,13 +3659,13 @@
         <v>304394</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>714</v>
@@ -3692,13 +3674,13 @@
         <v>709289</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3697,13 @@
         <v>56056</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -3730,13 +3712,13 @@
         <v>47194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -3745,13 +3727,13 @@
         <v>103250</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3748,13 @@
         <v>516578</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>295</v>
@@ -3781,13 +3763,13 @@
         <v>302954</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>805</v>
@@ -3796,13 +3778,13 @@
         <v>819533</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3799,13 @@
         <v>539879</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>353</v>
@@ -3832,13 +3814,13 @@
         <v>359231</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>877</v>
@@ -3847,19 +3829,19 @@
         <v>899111</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>259</v>
@@ -3868,13 +3850,13 @@
         <v>270917</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>150</v>
@@ -3883,13 +3865,13 @@
         <v>153950</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>409</v>
@@ -3898,13 +3880,13 @@
         <v>424867</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3901,13 @@
         <v>1383431</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>845</v>
@@ -3934,13 +3916,13 @@
         <v>863330</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>2192</v>
@@ -3949,18 +3931,18 @@
         <v>2246761</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3981,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7D5548-6D75-4171-9ECC-E07C9FF7DEC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA6AD12-8099-4D10-B20A-59D3328045AA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,7 +3980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4111,7 +4093,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4126,7 +4108,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4141,7 +4123,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4138,13 @@
         <v>8828</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4171,13 +4153,13 @@
         <v>4087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4186,13 +4168,13 @@
         <v>12916</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4189,13 @@
         <v>36653</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -4222,13 +4204,13 @@
         <v>14958</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M6" s="7">
         <v>48</v>
@@ -4237,19 +4219,19 @@
         <v>51612</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -4258,13 +4240,13 @@
         <v>6178</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4273,13 +4255,13 @@
         <v>973</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4288,13 +4270,13 @@
         <v>7151</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4291,13 @@
         <v>51660</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4324,13 +4306,13 @@
         <v>20018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>69</v>
@@ -4339,18 +4321,18 @@
         <v>71678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4362,13 +4344,13 @@
         <v>2178</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4377,13 +4359,13 @@
         <v>1131</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -4398,7 +4380,7 @@
         <v>261</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4395,13 @@
         <v>29931</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4428,13 +4410,13 @@
         <v>26009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -4443,13 +4425,13 @@
         <v>55940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4446,13 @@
         <v>149791</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>86</v>
@@ -4479,13 +4461,13 @@
         <v>92749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -4494,19 +4476,19 @@
         <v>242541</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>36</v>
@@ -4515,13 +4497,13 @@
         <v>36021</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -4530,13 +4512,13 @@
         <v>20886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -4545,13 +4527,13 @@
         <v>56907</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4548,13 @@
         <v>217922</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -4581,13 +4563,13 @@
         <v>140775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>338</v>
@@ -4596,18 +4578,18 @@
         <v>358698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4619,13 +4601,13 @@
         <v>4172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4634,13 +4616,13 @@
         <v>3157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4649,13 +4631,13 @@
         <v>7329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4652,13 @@
         <v>57128</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -4685,13 +4667,13 @@
         <v>30600</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="M15" s="7">
         <v>81</v>
@@ -4700,13 +4682,13 @@
         <v>87727</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4703,13 @@
         <v>265141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>182</v>
@@ -4736,13 +4718,13 @@
         <v>199001</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>424</v>
@@ -4751,19 +4733,19 @@
         <v>464142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>71</v>
@@ -4772,13 +4754,13 @@
         <v>76764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -4787,13 +4769,13 @@
         <v>57589</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -4802,13 +4784,13 @@
         <v>134353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4805,13 @@
         <v>403205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>265</v>
@@ -4838,13 +4820,13 @@
         <v>290347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>635</v>
@@ -4853,18 +4835,18 @@
         <v>693552</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4876,13 +4858,13 @@
         <v>1970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4891,10 +4873,10 @@
         <v>4226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>326</v>
@@ -4906,7 +4888,7 @@
         <v>6196</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>327</v>
@@ -4957,13 +4939,13 @@
         <v>81431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4960,13 @@
         <v>188723</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -4993,13 +4975,13 @@
         <v>135607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M21" s="7">
         <v>290</v>
@@ -5008,19 +4990,19 @@
         <v>324330</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>70</v>
@@ -5029,13 +5011,13 @@
         <v>75547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5044,13 +5026,13 @@
         <v>54969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -5059,13 +5041,13 @@
         <v>130515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5062,13 @@
         <v>313753</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>205</v>
@@ -5095,13 +5077,13 @@
         <v>228719</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>489</v>
@@ -5110,18 +5092,18 @@
         <v>542472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5133,13 +5115,13 @@
         <v>13558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>198</v>
+        <v>356</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5148,13 +5130,13 @@
         <v>5355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5163,13 +5145,13 @@
         <v>18912</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5166,13 @@
         <v>68665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5199,13 +5181,13 @@
         <v>49421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -5214,13 +5196,13 @@
         <v>118085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5217,13 @@
         <v>190223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -5250,13 +5232,13 @@
         <v>170452</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>347</v>
@@ -5265,19 +5247,19 @@
         <v>360675</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>87</v>
@@ -5286,13 +5268,13 @@
         <v>89798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="H27" s="7">
         <v>64</v>
@@ -5301,13 +5283,13 @@
         <v>67086</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="M27" s="7">
         <v>151</v>
@@ -5316,13 +5298,13 @@
         <v>156884</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5319,13 @@
         <v>362243</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>277</v>
@@ -5352,13 +5334,13 @@
         <v>292313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>629</v>
@@ -5367,13 +5349,13 @@
         <v>654557</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5372,13 @@
         <v>21878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -5405,13 +5387,13 @@
         <v>13869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -5420,13 +5402,13 @@
         <v>35747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5423,13 @@
         <v>212065</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H30" s="7">
         <v>132</v>
@@ -5456,13 +5438,13 @@
         <v>144034</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M30" s="7">
         <v>332</v>
@@ -5471,13 +5453,13 @@
         <v>356099</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>404</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>401</v>
+        <v>263</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5474,13 @@
         <v>830533</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H31" s="7">
         <v>564</v>
@@ -5507,13 +5489,13 @@
         <v>612768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M31" s="7">
         <v>1337</v>
@@ -5522,19 +5504,19 @@
         <v>1443300</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>271</v>
@@ -5543,13 +5525,13 @@
         <v>284308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>414</v>
+        <v>250</v>
       </c>
       <c r="H32" s="7">
         <v>185</v>
@@ -5558,13 +5540,13 @@
         <v>201502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M32" s="7">
         <v>456</v>
@@ -5573,13 +5555,13 @@
         <v>485809</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5576,13 @@
         <v>1348784</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>894</v>
@@ -5609,13 +5591,13 @@
         <v>972173</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>2160</v>
@@ -5624,18 +5606,18 @@
         <v>2320956</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5656,7 +5638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C408699-A7BC-4FAD-B0EA-937B8F58D689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752C3268-FB2A-43AF-B338-C5DC34F6677B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5673,7 +5655,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5780,13 +5762,13 @@
         <v>2127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5801,7 +5783,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5810,13 +5792,13 @@
         <v>2127</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5813,13 @@
         <v>6587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5846,13 +5828,13 @@
         <v>4666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5861,13 +5843,13 @@
         <v>11252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5864,13 @@
         <v>32631</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -5897,13 +5879,13 @@
         <v>22273</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -5912,19 +5894,19 @@
         <v>54904</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -5933,13 +5915,13 @@
         <v>7714</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5948,13 +5930,13 @@
         <v>4891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5963,13 +5945,13 @@
         <v>12605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5966,13 @@
         <v>49058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -5999,13 +5981,13 @@
         <v>31830</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6014,18 +5996,18 @@
         <v>80888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -6037,13 +6019,13 @@
         <v>5847</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>452</v>
+        <v>94</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6052,13 +6034,13 @@
         <v>3274</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -6067,13 +6049,13 @@
         <v>9120</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6070,13 @@
         <v>34728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -6103,13 +6085,13 @@
         <v>32148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>462</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -6118,13 +6100,13 @@
         <v>66877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6121,13 @@
         <v>115538</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -6154,13 +6136,13 @@
         <v>69267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>472</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -6169,19 +6151,19 @@
         <v>184805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>43</v>
@@ -6190,13 +6172,13 @@
         <v>44538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -6205,13 +6187,13 @@
         <v>29676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M12" s="7">
         <v>73</v>
@@ -6220,13 +6202,13 @@
         <v>74214</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6223,13 @@
         <v>200651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
@@ -6256,13 +6238,13 @@
         <v>134365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -6271,18 +6253,18 @@
         <v>335016</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6294,13 +6276,13 @@
         <v>14059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -6309,13 +6291,13 @@
         <v>10732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -6324,13 +6306,13 @@
         <v>24791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6327,13 @@
         <v>54136</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -6360,13 +6342,13 @@
         <v>44331</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>499</v>
+        <v>370</v>
       </c>
       <c r="M15" s="7">
         <v>91</v>
@@ -6438,7 +6420,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>56</v>
@@ -6450,10 +6432,10 @@
         <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -6462,13 +6444,13 @@
         <v>43379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -6477,13 +6459,13 @@
         <v>104664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>518</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6480,13 @@
         <v>328703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>259</v>
@@ -6513,13 +6495,13 @@
         <v>268862</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -6528,18 +6510,18 @@
         <v>597565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6551,13 +6533,13 @@
         <v>8928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>519</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>521</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6566,13 +6548,13 @@
         <v>1969</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6581,13 +6563,13 @@
         <v>10897</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6584,13 @@
         <v>71993</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -6617,13 +6599,13 @@
         <v>67308</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -6632,13 +6614,13 @@
         <v>139302</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6635,13 @@
         <v>138893</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -6668,13 +6650,13 @@
         <v>102089</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -6683,19 +6665,19 @@
         <v>240983</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>76</v>
@@ -6704,13 +6686,13 @@
         <v>83860</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6719,13 +6701,13 @@
         <v>50972</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -6734,13 +6716,13 @@
         <v>134832</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,13 +6737,13 @@
         <v>303674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>215</v>
@@ -6770,13 +6752,13 @@
         <v>222339</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>486</v>
@@ -6785,18 +6767,18 @@
         <v>526013</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6808,13 +6790,13 @@
         <v>1957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>554</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6823,13 +6805,13 @@
         <v>6924</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -6838,13 +6820,13 @@
         <v>8881</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6841,13 @@
         <v>61910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -6874,13 +6856,13 @@
         <v>34629</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>563</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -6889,13 +6871,13 @@
         <v>96538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>567</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,13 +6892,13 @@
         <v>163344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -6925,13 +6907,13 @@
         <v>158045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M26" s="7">
         <v>315</v>
@@ -6940,19 +6922,19 @@
         <v>321388</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>54</v>
@@ -6961,13 +6943,13 @@
         <v>53690</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>579</v>
+        <v>284</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -6976,13 +6958,13 @@
         <v>56706</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>581</v>
+        <v>283</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="M27" s="7">
         <v>106</v>
@@ -6991,13 +6973,13 @@
         <v>110396</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>253</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,13 +6994,13 @@
         <v>280900</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>245</v>
@@ -7027,13 +7009,13 @@
         <v>256304</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>522</v>
@@ -7042,13 +7024,13 @@
         <v>537204</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7047,13 @@
         <v>32917</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>582</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -7080,13 +7062,13 @@
         <v>22900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>589</v>
+        <v>390</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -7095,13 +7077,13 @@
         <v>55817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>355</v>
+        <v>588</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7098,13 @@
         <v>229354</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>593</v>
+        <v>331</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H30" s="7">
         <v>178</v>
@@ -7131,13 +7113,13 @@
         <v>183082</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>463</v>
+        <v>593</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>597</v>
+        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>387</v>
@@ -7146,13 +7128,13 @@
         <v>412436</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7149,13 @@
         <v>649628</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H31" s="7">
         <v>508</v>
@@ -7182,13 +7164,13 @@
         <v>522094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>606</v>
+        <v>478</v>
       </c>
       <c r="M31" s="7">
         <v>1112</v>
@@ -7197,19 +7179,19 @@
         <v>1171722</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>236</v>
@@ -7218,13 +7200,13 @@
         <v>251086</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H32" s="7">
         <v>176</v>
@@ -7233,13 +7215,13 @@
         <v>185625</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M32" s="7">
         <v>412</v>
@@ -7248,13 +7230,13 @@
         <v>436711</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>617</v>
+        <v>421</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,13 +7251,13 @@
         <v>1162985</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>885</v>
@@ -7284,13 +7266,13 @@
         <v>913701</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>1966</v>
@@ -7299,18 +7281,18 @@
         <v>2076686</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24F-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBB49D5-F1D5-4998-B6FC-0EBF4B3065B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81843005-D985-4BE3-B132-3AC8738D1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E135EE2-7D62-4286-A91B-0915A285743A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7063F0E-AD82-416D-8E47-13F974365E95}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="616">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,14%</t>
+    <t>13,61%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>7,05%</t>
   </si>
   <si>
     <t>No lo ha pensado</t>
@@ -100,28 +100,28 @@
     <t>44,94%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>Sí le gustaría</t>
@@ -130,28 +130,28 @@
     <t>43,55%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
   </si>
   <si>
     <t>60,54%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -160,1723 +160,1732 @@
     <t>9,24%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>23,15%</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2631C1B-5DE4-4E1B-AAD4-E6D64C5E0620}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31CCC96-45B8-4658-B97F-3A97AE1E62BD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2941,13 +2950,13 @@
         <v>9260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -2956,13 +2965,13 @@
         <v>27870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2986,13 @@
         <v>143840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -2992,13 +3001,13 @@
         <v>73097</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>206</v>
@@ -3007,13 +3016,13 @@
         <v>216937</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3037,13 @@
         <v>151137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3043,13 +3052,13 @@
         <v>106132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -3058,13 +3067,13 @@
         <v>257269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3088,13 @@
         <v>92694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3094,13 +3103,13 @@
         <v>38647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -3109,13 +3118,13 @@
         <v>131341</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3180,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3183,13 +3192,13 @@
         <v>2835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3198,13 +3207,13 @@
         <v>2000</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3213,13 +3222,13 @@
         <v>4835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3243,13 @@
         <v>77515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -3249,13 +3258,13 @@
         <v>48959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -3264,13 +3273,13 @@
         <v>126474</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3294,13 @@
         <v>118793</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -3300,13 +3309,13 @@
         <v>82551</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>196</v>
@@ -3315,13 +3324,13 @@
         <v>201343</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3345,13 @@
         <v>53832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3351,13 +3360,13 @@
         <v>36492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3366,13 +3375,13 @@
         <v>90323</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3437,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3440,13 +3449,13 @@
         <v>22148</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -3455,13 +3464,13 @@
         <v>24024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -3470,13 +3479,13 @@
         <v>46172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3500,13 @@
         <v>161753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -3506,13 +3515,13 @@
         <v>104257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>268</v>
@@ -3521,13 +3530,13 @@
         <v>266010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3551,13 @@
         <v>140342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>113</v>
@@ -3557,13 +3566,13 @@
         <v>118020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>260</v>
@@ -3572,13 +3581,13 @@
         <v>258363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3602,13 @@
         <v>80651</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>57</v>
@@ -3608,13 +3617,13 @@
         <v>58093</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>140</v>
@@ -3623,13 +3632,13 @@
         <v>138745</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3706,13 @@
         <v>56056</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -3712,13 +3721,13 @@
         <v>47194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -3727,13 +3736,13 @@
         <v>103250</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3757,13 @@
         <v>516578</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>295</v>
@@ -3763,13 +3772,13 @@
         <v>302954</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>805</v>
@@ -3778,13 +3787,13 @@
         <v>819533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3808,13 @@
         <v>539879</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>353</v>
@@ -3814,13 +3823,13 @@
         <v>359231</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>877</v>
@@ -3829,13 +3838,13 @@
         <v>899111</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3859,13 @@
         <v>270917</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>150</v>
@@ -3865,13 +3874,13 @@
         <v>153950</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>409</v>
@@ -3880,13 +3889,13 @@
         <v>424867</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +3951,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3963,7 +3972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA6AD12-8099-4D10-B20A-59D3328045AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA895ADC-E97F-400D-AE52-CD2A3928DEB7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,7 +3989,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4093,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4108,7 +4117,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4123,7 +4132,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4147,13 @@
         <v>8828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4153,13 +4162,13 @@
         <v>4087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4168,13 +4177,13 @@
         <v>12916</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4198,13 @@
         <v>36653</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -4204,13 +4213,13 @@
         <v>14958</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M6" s="7">
         <v>48</v>
@@ -4219,13 +4228,13 @@
         <v>51612</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4249,13 @@
         <v>6178</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4255,13 +4264,13 @@
         <v>973</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4270,13 +4279,13 @@
         <v>7151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4353,13 @@
         <v>2178</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4359,13 +4368,13 @@
         <v>1131</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -4619,10 +4628,10 @@
         <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4631,10 +4640,10 @@
         <v>7329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>297</v>
@@ -4775,7 +4784,7 @@
         <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -4784,10 +4793,10 @@
         <v>134353</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>323</v>
@@ -4846,7 +4855,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4873,13 +4882,13 @@
         <v>4226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4888,13 +4897,13 @@
         <v>6196</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4918,13 @@
         <v>47513</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -4924,13 +4933,13 @@
         <v>33918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -4939,13 +4948,13 @@
         <v>81431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4969,13 @@
         <v>188723</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -4975,13 +4984,13 @@
         <v>135607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>290</v>
@@ -4990,13 +4999,13 @@
         <v>324330</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5020,13 @@
         <v>75547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5026,13 +5035,13 @@
         <v>54969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -5041,13 +5050,13 @@
         <v>130515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,7 +5112,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5115,13 +5124,13 @@
         <v>13558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>357</v>
+        <v>51</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5130,13 +5139,13 @@
         <v>5355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5145,13 +5154,13 @@
         <v>18912</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5175,13 @@
         <v>68665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5181,13 +5190,13 @@
         <v>49421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -5196,13 +5205,13 @@
         <v>118085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,10 +5226,10 @@
         <v>190223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>376</v>
@@ -5253,7 +5262,7 @@
         <v>381</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5277,13 @@
         <v>89798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H27" s="7">
         <v>64</v>
@@ -5283,13 +5292,13 @@
         <v>67086</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="M27" s="7">
         <v>151</v>
@@ -5298,13 +5307,13 @@
         <v>156884</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5381,13 @@
         <v>21878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -5387,13 +5396,13 @@
         <v>13869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -5402,13 +5411,13 @@
         <v>35747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,10 +5432,10 @@
         <v>212065</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>400</v>
@@ -5456,10 +5465,10 @@
         <v>404</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>263</v>
+        <v>405</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5483,13 @@
         <v>830533</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H31" s="7">
         <v>564</v>
@@ -5489,13 +5498,13 @@
         <v>612768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M31" s="7">
         <v>1337</v>
@@ -5504,13 +5513,13 @@
         <v>1443300</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5540,7 @@
         <v>416</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="H32" s="7">
         <v>185</v>
@@ -5617,7 +5626,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5638,7 +5647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752C3268-FB2A-43AF-B338-C5DC34F6677B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9179F6-F140-450E-933C-11029B2E1FD7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5915,7 +5924,7 @@
         <v>7714</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>447</v>
@@ -5930,13 +5939,13 @@
         <v>4891</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5945,13 +5954,13 @@
         <v>12605</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6028,13 @@
         <v>5847</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6076,7 +6085,7 @@
         <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -6085,7 +6094,7 @@
         <v>32148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>466</v>
@@ -6142,7 +6151,7 @@
         <v>475</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>476</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -6151,13 +6160,13 @@
         <v>184805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6181,13 @@
         <v>44538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -6187,13 +6196,13 @@
         <v>29676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M12" s="7">
         <v>73</v>
@@ -6202,10 +6211,10 @@
         <v>74214</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>486</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>487</v>
@@ -6294,7 +6303,7 @@
         <v>491</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>492</v>
@@ -6306,13 +6315,13 @@
         <v>24791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>493</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6336,13 @@
         <v>54136</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -6342,13 +6351,13 @@
         <v>44331</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>370</v>
+        <v>501</v>
       </c>
       <c r="M15" s="7">
         <v>91</v>
@@ -6357,13 +6366,13 @@
         <v>98468</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6387,13 @@
         <v>199223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>165</v>
@@ -6393,13 +6402,13 @@
         <v>170419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M16" s="7">
         <v>344</v>
@@ -6408,13 +6417,13 @@
         <v>369642</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6438,13 @@
         <v>61285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -6444,13 +6453,13 @@
         <v>43379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -6459,13 +6468,13 @@
         <v>104664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6530,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6533,13 +6542,13 @@
         <v>8928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>525</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6548,13 +6557,13 @@
         <v>1969</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6563,13 +6572,13 @@
         <v>10897</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>522</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>523</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6593,13 @@
         <v>71993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -6599,13 +6608,13 @@
         <v>67308</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -6614,13 +6623,13 @@
         <v>139302</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6644,13 @@
         <v>138893</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -6650,13 +6659,13 @@
         <v>102089</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -6665,13 +6674,13 @@
         <v>240983</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6695,13 @@
         <v>83860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>544</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6701,13 +6710,13 @@
         <v>50972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -6716,13 +6725,13 @@
         <v>134832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>549</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,7 +6787,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6790,13 +6799,13 @@
         <v>1957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>554</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6805,13 +6814,13 @@
         <v>6924</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -6820,13 +6829,13 @@
         <v>8881</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>556</v>
+        <v>395</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6850,13 @@
         <v>61910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -6856,13 +6865,13 @@
         <v>34629</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -6871,13 +6880,13 @@
         <v>96538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6901,13 @@
         <v>163344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -6907,13 +6916,13 @@
         <v>158045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M26" s="7">
         <v>315</v>
@@ -6922,13 +6931,13 @@
         <v>321388</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6952,13 @@
         <v>53690</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>576</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -6958,13 +6967,13 @@
         <v>56706</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>283</v>
+        <v>578</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M27" s="7">
         <v>106</v>
@@ -6973,13 +6982,13 @@
         <v>110396</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>579</v>
+        <v>390</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>581</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,10 +7074,10 @@
         <v>585</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>390</v>
+        <v>586</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -7077,13 +7086,13 @@
         <v>55817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7107,13 @@
         <v>229354</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>331</v>
+        <v>591</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H30" s="7">
         <v>178</v>
@@ -7113,13 +7122,13 @@
         <v>183082</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>465</v>
+        <v>595</v>
       </c>
       <c r="M30" s="7">
         <v>387</v>
@@ -7128,13 +7137,13 @@
         <v>412436</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7158,13 @@
         <v>649628</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H31" s="7">
         <v>508</v>
@@ -7164,13 +7173,13 @@
         <v>522094</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>478</v>
+        <v>603</v>
       </c>
       <c r="M31" s="7">
         <v>1112</v>
@@ -7179,13 +7188,13 @@
         <v>1171722</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7209,13 @@
         <v>251086</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H32" s="7">
         <v>176</v>
@@ -7215,13 +7224,13 @@
         <v>185625</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M32" s="7">
         <v>412</v>
@@ -7230,13 +7239,13 @@
         <v>436711</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>421</v>
+        <v>614</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,7 +7301,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
